--- a/team_specific_matrix/Anderson (SC)_B.xlsx
+++ b/team_specific_matrix/Anderson (SC)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -841,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.3225806451612903</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1289,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,28 +1401,28 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
   </sheetData>
